--- a/biology/Médecine/Racine_antérieure_du_nerf_spinal/Racine_antérieure_du_nerf_spinal.xlsx
+++ b/biology/Médecine/Racine_antérieure_du_nerf_spinal/Racine_antérieure_du_nerf_spinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Racine_ant%C3%A9rieure_du_nerf_spinal</t>
+          <t>Racine_antérieure_du_nerf_spinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les racines antérieures des nerfs spinaux (ou racines antérieures des nerfs rachidiens ou racines motrices des nerfs rachidiens) sont des racines qui, avec les racines postérieures, forment les nerfs spinaux.
 Elles sont constituées de quatre à sept fibres issues du sillon collatéral antérieur de la moelle spinale. Elles sont constituées des fibres motrices centrifuges issues de la corne antérieure de celle-ci.
